--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.3778</v>
+        <v>-12.3283</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.4437</v>
+        <v>-12.0677</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.791399999999997</v>
+        <v>5.792799999999999</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.194900000000001</v>
+        <v>5.135299999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.3097</v>
+        <v>-12.9523</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.332099999999995</v>
+        <v>4.498799999999996</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.529</v>
+        <v>-11.3747</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.476399999999999</v>
+        <v>6.42</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.559500000000003</v>
+        <v>6.547900000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>3.925699999999996</v>
+        <v>3.841699999999995</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.6341</v>
+        <v>-13.4593</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.7531</v>
+        <v>6.661399999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.12390000000001</v>
+        <v>-12.08830000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.977500000000003</v>
+        <v>9.121499999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.9706</v>
+        <v>-12.9605</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.945599999999997</v>
+        <v>4.966099999999998</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.61780000000001</v>
+        <v>-12.79960000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.3419</v>
+        <v>-13.39800000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.5235</v>
+        <v>-13.2677</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>7.818900000000001</v>
+        <v>7.446800000000003</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0324</v>
+        <v>-11.0462</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.8226</v>
+        <v>4.8326</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.686499999999996</v>
+        <v>4.834499999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.385199999999999</v>
+        <v>4.495299999999998</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.48669999999999</v>
+        <v>-14.68639999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.620699999999994</v>
+        <v>5.304299999999997</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.722099999999995</v>
+        <v>5.604299999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.802599999999999</v>
+        <v>5.836899999999998</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.850100000000001</v>
+        <v>8.416699999999995</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.01539999999999</v>
+        <v>-12.88079999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.088699999999998</v>
+        <v>5.081799999999994</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.7266</v>
+        <v>-14.0228</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.934200000000005</v>
+        <v>4.738200000000004</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.153</v>
+        <v>5.2747</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.946399999999996</v>
+        <v>6.544300000000004</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.885199999999997</v>
+        <v>4.787799999999995</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.7654</v>
+        <v>-12.9072</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.5945</v>
+        <v>-12.939</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
